--- a/relacion_Voltaje_vs_corriente.xlsx
+++ b/relacion_Voltaje_vs_corriente.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan\Documents\GitHub\Proyecto_de_Graduacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C08907-26D1-47D1-B958-FCB58AB74765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF88A398-8DAE-4F1C-A342-2B31CBE85577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3637F35-3F90-4F35-8F95-653C89851009}"/>
   </bookViews>
@@ -45,10 +45,10 @@
     <t>practico</t>
   </si>
   <si>
-    <t>Voltaje/corriente</t>
+    <t>corriente aproximada con regrecion</t>
   </si>
   <si>
-    <t>corriente aproximada con regrecion</t>
+    <t>corriente/voltaje</t>
   </si>
 </sst>
 </file>
@@ -56,7 +56,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -89,10 +89,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -246,32 +246,35 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$11</c:f>
+              <c:f>Sheet1!$A$3:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.18</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.21</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.32500000000000001</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.35</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.375</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
@@ -279,32 +282,35 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$11</c:f>
+              <c:f>Sheet1!$B$3:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.38750000000000001</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.4375</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.51249999999999996</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.5625</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.63749999999999996</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.66874999999999996</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.7</c:v>
                 </c:pt>
               </c:numCache>
@@ -343,34 +349,115 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.5269095729845991E-3"/>
+                  <c:y val="0.22020227865487452"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-GT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$11</c:f>
+              <c:f>Sheet1!$A$3:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.18</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.21</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.32500000000000001</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.35</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.375</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
@@ -378,32 +465,35 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$11</c:f>
+              <c:f>Sheet1!$C$3:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.252</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.29399999999999998</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.35</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.42</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.45499999999999996</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.48999999999999994</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.52499999999999991</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.55999999999999994</c:v>
                 </c:pt>
               </c:numCache>
@@ -1531,17 +1621,17 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:D23"/>
+      <selection activeCell="A16" sqref="A16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1662,84 +1752,84 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="A15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <f>(B4-0.1455)/1.3984</f>
-        <v>0.17305491990846683</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="A16" s="1">
+        <f>(B4-0.046)/1.7124</f>
+        <v>0.19942770380752164</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <f t="shared" ref="A17:A29" si="1">(B5-0.1455)/1.3984</f>
-        <v>0.20881006864988561</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="A17" s="1">
+        <f t="shared" ref="A17:A23" si="1">(B5-0.046)/1.7124</f>
+        <v>0.22862648913805186</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <f t="shared" si="1"/>
-        <v>0.26244279176201368</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+        <v>0.27242466713384722</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <f t="shared" si="1"/>
-        <v>0.29819794050343251</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+        <v>0.3016234524643775</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <f t="shared" si="1"/>
-        <v>0.32501430205949655</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+        <v>0.32352254146227516</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <f t="shared" si="1"/>
-        <v>0.35183066361556059</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+        <v>0.34542163046017282</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <f t="shared" si="1"/>
-        <v>0.37417763157894735</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+        <v>0.36367087129175424</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <f t="shared" si="1"/>
-        <v>0.39652459954233404</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+        <v>0.38192011212333565</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/relacion_Voltaje_vs_corriente.xlsx
+++ b/relacion_Voltaje_vs_corriente.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan\Documents\GitHub\Proyecto_de_Graduacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF88A398-8DAE-4F1C-A342-2B31CBE85577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF78471C-01C6-4B80-9258-6CD9FFF64FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3637F35-3F90-4F35-8F95-653C89851009}"/>
   </bookViews>
@@ -724,7 +724,438 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-GT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$32:$F$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$32:$G$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.48599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-48D4-4B82-A50B-DA631F7765DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="734178976"/>
+        <c:axId val="734177992"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="734178976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="734177992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="734177992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="734178976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1280,6 +1711,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1313,6 +2260,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C01BE645-CA7C-4161-9EC4-3801FA5F7EED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1618,22 +2601,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCFF4D08-F11A-470A-A489-A161B4D79B23}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:D16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1644,7 +2627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1655,7 +2638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.18</v>
       </c>
@@ -1666,8 +2649,14 @@
         <f>A4*1.4</f>
         <v>0.252</v>
       </c>
+      <c r="F4">
+        <v>0.08</v>
+      </c>
+      <c r="G4">
+        <v>0.63300000000000001</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.21</v>
       </c>
@@ -1678,8 +2667,14 @@
         <f t="shared" ref="C5:C11" si="0">A5*1.4</f>
         <v>0.29399999999999998</v>
       </c>
+      <c r="F5">
+        <v>0.126</v>
+      </c>
+      <c r="G5">
+        <v>1.0629999999999999</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.25</v>
       </c>
@@ -1691,7 +2686,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.3</v>
       </c>
@@ -1703,7 +2698,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.32500000000000001</v>
       </c>
@@ -1715,7 +2710,7 @@
         <v>0.45499999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.35</v>
       </c>
@@ -1727,7 +2722,7 @@
         <v>0.48999999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.375</v>
       </c>
@@ -1739,7 +2734,7 @@
         <v>0.52499999999999991</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.4</v>
       </c>
@@ -1751,7 +2746,7 @@
         <v>0.55999999999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
@@ -1759,7 +2754,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f>(B4-0.046)/1.7124</f>
         <v>0.19942770380752164</v>
@@ -1768,7 +2763,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" ref="A17:A23" si="1">(B5-0.046)/1.7124</f>
         <v>0.22862648913805186</v>
@@ -1777,7 +2772,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="1"/>
         <v>0.27242466713384722</v>
@@ -1786,7 +2781,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="1"/>
         <v>0.3016234524643775</v>
@@ -1795,7 +2790,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="1"/>
         <v>0.32352254146227516</v>
@@ -1804,7 +2799,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" si="1"/>
         <v>0.34542163046017282</v>
@@ -1813,7 +2808,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="1"/>
         <v>0.36367087129175424</v>
@@ -1822,7 +2817,7 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" si="1"/>
         <v>0.38192011212333565</v>
@@ -1830,6 +2825,54 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G32">
+        <v>0.48599999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>0.3</v>
+      </c>
+      <c r="G33">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="J33">
+        <f>1.7124*(150/1000)+0.046</f>
+        <v>0.30285999999999996</v>
+      </c>
+      <c r="M33">
+        <f>(0.15-0.046)/1.7124</f>
+        <v>6.0733473487502923E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>0.34</v>
+      </c>
+      <c r="G34">
+        <v>0.55200000000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>0.36</v>
+      </c>
+      <c r="G35">
+        <v>0.56799999999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>0.4</v>
+      </c>
+      <c r="G36">
+        <v>0.67</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
